--- a/List.xlsx
+++ b/List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Usuwanie ze środkowego indexu</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Ilosc opreacji</t>
   </si>
   <si>
-    <t>Czas [ms]</t>
+    <t>Czas []</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -78,14 +78,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="31.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.45703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.83984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="30.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -103,82 +105,82 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="B3" t="n">
-        <v>83.0</v>
+        <v>2074.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="B4" t="n">
-        <v>422.0</v>
+        <v>7721.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B5" t="n">
-        <v>891.0</v>
+        <v>13511.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1667.0</v>
+        <v>18793.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>50000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="B7" t="n">
-        <v>2617.0</v>
+        <v>24418.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="B8" t="n">
-        <v>3740.0</v>
+        <v>29211.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4884.0</v>
+        <v>35448.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>80000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="B10" t="n">
-        <v>6952.0</v>
+        <v>41352.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>90000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="B11" t="n">
-        <v>8936.0</v>
+        <v>45529.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="B12" t="n">
-        <v>12275.0</v>
+        <v>52554.0</v>
       </c>
     </row>
     <row r="13">
@@ -195,6 +197,15 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -203,85 +214,175 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
+      <c r="E16" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2074.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3156.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3156.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>10000.0</v>
       </c>
-      <c r="B17" t="n">
-        <v>60.0</v>
+      <c r="F17" t="n">
+        <v>7721.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5931.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="B18" t="n">
-        <v>282.0</v>
+        <v>5931.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13511.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10664.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="B19" t="n">
-        <v>569.0</v>
+        <v>10664.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18793.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12843.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>40000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1028.0</v>
+        <v>12843.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24418.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>15774.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>50000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1576.0</v>
+        <v>15774.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>30000.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>29211.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>18915.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="B22" t="n">
-        <v>2289.0</v>
+        <v>18915.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>35000.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>35448.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22144.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>70000.0</v>
+        <v>35000.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2781.0</v>
+        <v>22144.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>41352.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25581.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>80000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="B24" t="n">
-        <v>4129.0</v>
+        <v>25581.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>45000.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45529.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>28792.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>90000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="B25" t="n">
-        <v>5305.0</v>
+        <v>28792.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>52554.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>31923.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="B26" t="n">
-        <v>6936.0</v>
+        <v>31923.0</v>
       </c>
     </row>
     <row r="27">
